--- a/data/VIC_COVID19_CASES_DEATHS_BY_AGE_2020.xlsx
+++ b/data/VIC_COVID19_CASES_DEATHS_BY_AGE_2020.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbc9b17f084b37fa/COVID-19/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{D858AF08-2C2A-41ED-90BF-B9191CB97A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F453D2A3-A1C4-462F-8F42-5A12B50815E9}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A160D7-E69A-44DB-8561-A207956C35F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D445EE1-D027-45CF-8BB5-0C5CD22FF908}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D445EE1-D027-45CF-8BB5-0C5CD22FF908}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="2" r:id="rId1"/>
@@ -653,6 +648,7 @@
     <hyperlink ref="A2" r:id="rId2" location="navType=1&amp;navSrc=Parse" display="https://public.tableau.com/views/GenderAgeGroup/CasesDashboard?%3Alanguage=en-US&amp;%3Aembed=y&amp;%3Aembed_code_version=3&amp;%3AloadOrderID=4&amp;%3Adisplay_count=y&amp;publish=yes&amp;%3Aorigin=viz_share_link&amp;%3Asize=1056%2C25&amp;&amp;%3AshowVizHome=n&amp;%3Atabs=n&amp;%3AapiID=host2#navType=1&amp;navSrc=Parse" xr:uid="{3DD915DE-8524-4059-B607-AD80118C5503}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -660,7 +656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A86A45-4A1B-44F2-BB35-7ED435BB5A14}">
   <dimension ref="A1:AT367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -50980,5 +50978,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>